--- a/함수_파일_명_표준화.xlsx
+++ b/함수_파일_명_표준화.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\Git\test01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>고유번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,23 +50,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test010</t>
+    <t>index.jsp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>index.jsp</t>
+    <t>메인 페이지 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -144,157 +132,7 @@
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -372,7 +210,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
     <tableColumn id="1" name="고유번호"/>
@@ -684,7 +522,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -715,10 +553,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -728,9 +569,6 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
@@ -739,33 +577,21 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -1435,24 +1261,24 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 A3:B1048576 E2:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"중복"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B8">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="중복">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="중복">
       <formula>NOT(ISERROR(SEARCH("중복",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A3:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
